--- a/biology/Botanique/Dipterocarpus_alatus/Dipterocarpus_alatus.xlsx
+++ b/biology/Botanique/Dipterocarpus_alatus/Dipterocarpus_alatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dipterocarpus alatus est un arbre sempervirent originaire des forêts tropicales humides des plaines d'Asie du sud-est, de la famille des Diptérocarpacées.
-C'est un très grand arbre dit émergent car, quand il mesure 45 mètres de haut, il domine et émerge incontestablement au-dessus de la forêt et de la canopée[2].
+C'est un très grand arbre dit émergent car, quand il mesure 45 mètres de haut, il domine et émerge incontestablement au-dessus de la forêt et de la canopée.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,11 +552,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dipterocarpus alatus peut mesurer jusqu'à 45 mètres de haut (parfois plus), son tronc a un diamètre qui peut dépasser les deux mètres.
 Dans les très grands arbres, les branches les plus basses sont à plus du 20 m du sol.
-Il a des graines ailées aux ailettes rouge vif atteignant 10 cm[3] qui "volent" pour atteindre une autre partie de la forêt.
+Il a des graines ailées aux ailettes rouge vif atteignant 10 cm qui "volent" pour atteindre une autre partie de la forêt.
 </t>
         </is>
       </c>
@@ -571,7 +587,9 @@
           <t>L'arbre Yang Na Yai de l'île de Ko Pha Ngan</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Le plus grand dipterocarpus altus de Thaïlande : 53,5 mètres de haut
@@ -605,10 +623,12 @@
           <t>Un arbre parfois vénéré en Thaïlande</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le dipterocarpus altus est imposant. Il est parfois vénéré quand on croit qu'il abrite un "esprit" bienveillant ou malveillants : une Dame de l'arbre (Nang Mai / นางไม้) ou un Monsieur de l'arbre, entité de la nature (ผีต้นไม้). Dans ce cas, on l'orne de pièces de tissus, de soie et d'étoffes.
-Dans la forêt, les Dames de l'arbre les plus célèbres sont : Dame Ta-khian (นางตะเคียน / Nang Takian) qui habite un arbre Hopea odorata (en thai : ตะเคียน), réalise de nombreux miracles comme avoir de la chance aux jeux et apparaît parfois sous la forme d'une belle femme portant des vêtements traditionnels thaïlandais de couleur rouge ou brun ; et Dame Tani ( นางตานี / Nang Tani), vêtue de vert dans sa forme humaine, qui habite un bananier et qui punit les hommes infidèles (c'est pourquoi elle est crainte et que les thaïlandais refusent de planter des bananiers dans l’enceinte d’une maison)[4].
+Dans la forêt, les Dames de l'arbre les plus célèbres sont : Dame Ta-khian (นางตะเคียน / Nang Takian) qui habite un arbre Hopea odorata (en thai : ตะเคียน), réalise de nombreux miracles comme avoir de la chance aux jeux et apparaît parfois sous la forme d'une belle femme portant des vêtements traditionnels thaïlandais de couleur rouge ou brun ; et Dame Tani ( นางตานี / Nang Tani), vêtue de vert dans sa forme humaine, qui habite un bananier et qui punit les hommes infidèles (c'est pourquoi elle est crainte et que les thaïlandais refusent de planter des bananiers dans l’enceinte d’une maison).
 Pen-ek Ratanaruang dans son film Nang Mai (La Nymphe) raconte l'histoire d'un de ces arbres.</t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts de dipterocarpacées (dipterocarpaceae) et de bords de rivière, îles Andaman, Assam (Nord-Est de l'Inde), Myanmar (Birmanie), Cambodge, Philippines, Thaïlande et Vietnam.
 </t>
@@ -668,7 +690,9 @@
           <t>Préservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est en danger de disparition du fait de la déforestation.
 </t>
@@ -699,9 +723,11 @@
           <t>Source d'inspiration biomimétique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les propriétés particulières de rotation et sustentation de la graine ailée de cet arbre a inspiré (biomimétisme) des chercheurs pour la création d'essaims de petits engins aéroportés susceptibles de transporter des capteurs utiles pour le monitoring de l'environnement, mesurant par exemple la teneur de l'air en particules[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les propriétés particulières de rotation et sustentation de la graine ailée de cet arbre a inspiré (biomimétisme) des chercheurs pour la création d'essaims de petits engins aéroportés susceptibles de transporter des capteurs utiles pour le monitoring de l'environnement, mesurant par exemple la teneur de l'air en particules.
 </t>
         </is>
       </c>
